--- a/uploaded_files/admin/groups.xlsx
+++ b/uploaded_files/admin/groups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\interactive_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055FEF17-2A80-4B07-A9F4-1C9F90999B96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE9F62F-A362-4F0B-A3E8-A5660F79D054}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>group_id</t>
   </si>
@@ -67,6 +67,18 @@
   </si>
   <si>
     <t>https://t.me/joinchat/RcGGtdG60NynCrJK</t>
+  </si>
+  <si>
+    <t>https://t.me/joinchat/H9rYoLjUYKtakiYt</t>
+  </si>
+  <si>
+    <t>Test Interact</t>
+  </si>
+  <si>
+    <t>+1 Group Test</t>
+  </si>
+  <si>
+    <t>https://t.me/joinchat/IZk6e7P52S4M0CA6</t>
   </si>
 </sst>
 </file>
@@ -395,16 +407,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -477,6 +489,34 @@
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1001274866902</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-563690107</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
